--- a/projects/office_calibration_rgenoud_Sys5.xlsx
+++ b/projects/office_calibration_rgenoud_Sys5.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="868">
   <si>
     <t>type</t>
   </si>
@@ -2476,9 +2476,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>NationalGrid Office Calibration genoud 14</t>
-  </si>
-  <si>
     <t>AddSys5PVAVNgrid</t>
   </si>
   <si>
@@ -2621,6 +2618,33 @@
   </si>
   <si>
     <t>Gas RMSE</t>
+  </si>
+  <si>
+    <t>NationalGrid Office Calibration genoud</t>
+  </si>
+  <si>
+    <t>Electric CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>Electric NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>Gas CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>Gas NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
 </sst>
 </file>
@@ -6920,8 +6944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
@@ -7061,7 +7085,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>811</v>
+        <v>859</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7180,7 +7204,7 @@
         <v>561</v>
       </c>
       <c r="B24" s="30">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>579</v>
@@ -8147,13 +8171,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8847,13 +8871,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="C63" s="49" t="s">
         <v>852</v>
       </c>
-      <c r="C63" s="49" t="s">
-        <v>853</v>
-      </c>
       <c r="D63" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E63" s="49" t="s">
         <v>68</v>
@@ -8864,10 +8888,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="E64" s="43" t="s">
         <v>854</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>855</v>
       </c>
       <c r="F64" s="43" t="s">
         <v>64</v>
@@ -10386,8 +10410,8 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -10608,11 +10632,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>468</v>
@@ -10636,11 +10660,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>468</v>
@@ -10664,11 +10688,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>468</v>
@@ -10691,11 +10715,11 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>468</v>
@@ -10718,11 +10742,11 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>468</v>
@@ -10745,11 +10769,11 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>468</v>
@@ -10772,11 +10796,11 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>468</v>
@@ -10800,11 +10824,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>468</v>
@@ -10828,11 +10852,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>468</v>
@@ -10856,11 +10880,11 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>468</v>
@@ -10884,11 +10908,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>468</v>
@@ -10912,11 +10936,11 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>468</v>
@@ -10940,11 +10964,11 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>468</v>
@@ -10968,11 +10992,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>468</v>
@@ -10996,14 +11020,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>843</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>844</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11024,14 +11048,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11052,14 +11076,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11080,14 +11104,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>850</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>851</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11164,11 +11188,11 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>777</v>
@@ -11194,11 +11218,11 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>777</v>
@@ -11223,42 +11247,126 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="30"/>
+      <c r="A30" s="30" t="s">
+        <v>860</v>
+      </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
+      <c r="A31" s="30" t="s">
+        <v>862</v>
+      </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="30"/>
+      <c r="A32" s="30" t="s">
+        <v>864</v>
+      </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" ht="409.6">
-      <c r="A33" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="30" t="s">
+        <v>866</v>
+      </c>
       <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" ht="409.6">
+      <c r="C33" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:12">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:12">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
